--- a/Data/valid_institutions.xlsx
+++ b/Data/valid_institutions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jasonkuruzovich/Documents/GitHub/nsf-award-extract/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEA0A048-19E1-2548-B565-B8216BDC7931}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72FE68F2-273E-1E4C-A7AA-9EDF003AD02D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="760" windowWidth="20260" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>count</t>
   </si>
@@ -55,17 +55,53 @@
     <t>Excelsior College</t>
   </si>
   <si>
-    <t>Albany Technical College</t>
-  </si>
-  <si>
     <t>Albany College of Pharmacy</t>
+  </si>
+  <si>
+    <t>rpi.edu</t>
+  </si>
+  <si>
+    <t>albany.edu</t>
+  </si>
+  <si>
+    <t>sunypoly.edu</t>
+  </si>
+  <si>
+    <t>skidmore.edu</t>
+  </si>
+  <si>
+    <t>siena.edu</t>
+  </si>
+  <si>
+    <t>union.edu</t>
+  </si>
+  <si>
+    <t>suny.edu</t>
+  </si>
+  <si>
+    <t>hvcc.edu</t>
+  </si>
+  <si>
+    <t>excelsior.edu</t>
+  </si>
+  <si>
+    <t>acphs.edu</t>
+  </si>
+  <si>
+    <t>email_domain</t>
+  </si>
+  <si>
+    <t>amc.edu</t>
+  </si>
+  <si>
+    <t>Albany Medical College of Union University</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -81,6 +117,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF3B3B3B"/>
+      <name val="Menlo"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -90,7 +132,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -113,13 +155,28 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -426,10 +483,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B12"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -437,100 +494,133 @@
     <col min="1" max="1" width="35.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B2">
         <v>138</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C2" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B3">
         <v>113</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B4">
         <v>22</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B5">
         <v>19</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B6">
         <v>19</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B7">
         <v>7</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B8">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B9">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B10">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C10" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B11">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A12" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B12">
         <v>2</v>
+      </c>
+      <c r="C11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>
